--- a/sites/all/modules/custom/software_advisor_import/import/import.xlsx
+++ b/sites/all/modules/custom/software_advisor_import/import/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Email clients" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="470">
   <si>
     <t>Functions</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Funcitons</t>
-  </si>
-  <si>
     <t>Skype</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
   </si>
   <si>
     <t>whether support is available full day.</t>
-  </si>
-  <si>
-    <t>Funcrtions</t>
   </si>
   <si>
     <t>actiTime</t>
@@ -1446,7 +1440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1481,6 +1475,12 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1546,7 +1546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1563,11 +1563,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1579,8 +1583,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1662,7 +1670,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1676,7 +1684,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1713,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2629,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2632,18 +2640,18 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2672,15 +2680,15 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2694,7 +2702,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
@@ -2708,7 +2716,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
@@ -2722,7 +2730,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>1</v>
@@ -2736,7 +2744,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>1</v>
@@ -2750,7 +2758,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
@@ -2764,15 +2772,15 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>1</v>
@@ -2786,7 +2794,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>1</v>
@@ -2800,7 +2808,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>1</v>
@@ -2814,7 +2822,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
@@ -2828,15 +2836,15 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>1</v>
@@ -2850,7 +2858,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>1</v>
@@ -2864,7 +2872,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0</v>
@@ -2878,7 +2886,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0</v>
@@ -2892,7 +2900,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>1</v>
@@ -2906,61 +2914,61 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,7 +3032,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>1</v>
@@ -3075,112 +3083,112 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3232,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3242,36 +3250,36 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -3290,427 +3298,427 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>1</v>
@@ -3740,356 +3748,356 @@
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,1052 +4132,1052 @@
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="2" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
       <c r="K60" s="2" t="s">
         <v>85</v>
       </c>
@@ -5246,7 +5254,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>0</v>
@@ -5420,104 +5428,104 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="A68" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,112 +5735,112 @@
         <v>1</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,77 +5875,77 @@
         <v>1</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,11 +5980,11 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6065,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6076,45 +6084,45 @@
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -6133,107 +6141,107 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="N2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -6272,12 +6280,12 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -6316,12 +6324,12 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -6360,12 +6368,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -6404,20 +6412,20 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -6456,12 +6464,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
@@ -6500,100 +6508,100 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0</v>
@@ -6632,12 +6640,12 @@
         <v>0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -6676,12 +6684,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
@@ -6720,20 +6728,20 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
@@ -6772,12 +6780,12 @@
         <v>1</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0</v>
@@ -6816,12 +6824,12 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1</v>
@@ -6860,12 +6868,12 @@
         <v>1</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>1</v>
@@ -6904,12 +6912,12 @@
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
@@ -6948,12 +6956,12 @@
         <v>1</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -6992,12 +7000,12 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
@@ -7036,12 +7044,12 @@
         <v>1</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -7080,12 +7088,12 @@
         <v>0</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
@@ -7124,12 +7132,12 @@
         <v>1</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -7168,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7177,7 +7185,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,12 +7229,12 @@
         <v>1</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1</v>
@@ -7265,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,12 +7361,12 @@
         <v>1</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0</v>
@@ -7397,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7441,95 +7449,95 @@
         <v>1</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7638,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>1</v>
@@ -7869,7 +7877,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7880,23 +7888,23 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1"/>
@@ -7925,12 +7933,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -7945,12 +7953,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
@@ -7965,12 +7973,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
@@ -7985,12 +7993,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>1</v>
@@ -8005,12 +8013,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>1</v>
@@ -8025,12 +8033,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -8045,12 +8053,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>1</v>
@@ -8065,12 +8073,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0</v>
@@ -8085,12 +8093,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>1</v>
@@ -8105,12 +8113,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
@@ -8125,12 +8133,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
@@ -8145,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8198,7 +8206,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0</v>
@@ -8317,7 +8325,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8335,32 +8343,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -8384,7 +8392,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8395,12 +8403,12 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -8427,12 +8435,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
@@ -8459,12 +8467,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
@@ -8491,12 +8499,12 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>1</v>
@@ -8523,12 +8531,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>1</v>
@@ -8555,12 +8563,12 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0</v>
@@ -8587,12 +8595,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -8619,12 +8627,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0</v>
@@ -8651,12 +8659,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>1</v>
@@ -8683,12 +8691,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>1</v>
@@ -8715,20 +8723,20 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>1</v>
@@ -8755,12 +8763,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>1</v>
@@ -8787,12 +8795,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>1</v>
@@ -8819,12 +8827,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>1</v>
@@ -8851,12 +8859,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>1</v>
@@ -8883,12 +8891,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>1</v>
@@ -8915,12 +8923,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>1</v>
@@ -8947,12 +8955,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>1</v>
@@ -8979,12 +8987,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>1</v>
@@ -9011,20 +9019,20 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>1</v>
@@ -9053,7 +9061,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>1</v>
@@ -9082,7 +9090,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>1</v>
@@ -9111,7 +9119,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>1</v>
@@ -9140,7 +9148,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>1</v>
@@ -9169,44 +9177,44 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>1</v>
@@ -9235,7 +9243,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
@@ -9264,7 +9272,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0</v>
@@ -9293,7 +9301,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>1</v>
@@ -9322,7 +9330,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>1</v>
@@ -9350,7 +9358,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -9423,7 +9431,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>0</v>
@@ -9636,10 +9644,10 @@
   </sheetPr>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9648,21 +9656,21 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -9690,15 +9698,15 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
@@ -9715,7 +9723,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -9732,7 +9740,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
@@ -9749,16 +9757,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -9775,7 +9783,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
@@ -9792,7 +9800,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
@@ -9809,7 +9817,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -9826,7 +9834,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
@@ -9843,15 +9851,15 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
@@ -9866,12 +9874,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
@@ -9886,12 +9894,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -9906,20 +9914,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -9936,7 +9944,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
@@ -9953,7 +9961,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -9970,15 +9978,15 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>1</v>
@@ -9995,7 +10003,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
@@ -10012,15 +10020,15 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
@@ -10085,7 +10093,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
